--- a/data/trans_bre/P16A04-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A04-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A04-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A04-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,37%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,08%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>85,11%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,59%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,98; 0,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,28; 0,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,09; 2,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,57; 4,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,81; 32,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,44; 29,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,08; 364,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,8; 156,31</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,86%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,18%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,83%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,06; 1,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,57; 1,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,99; 0,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 1,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,54; 189,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,88; 85,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,52; 47,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,14; 69,53</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,91%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,13%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>92,28%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,79; 1,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,34; 1,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,81; 2,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,17; 2,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,21; 586,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,98; 157,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,2; 161,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,32; 420,9</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,58%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,37%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 1,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 0,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 0,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,05; 1,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,59; 76,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,3; 35,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,86; 55,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,16; 85,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A04-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A04-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>39,59%</t>
+          <t>34,68%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 4,7</t>
+          <t>-0,84; 4,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-16,8; 156,31</t>
+          <t>-19,39; 136,69</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>20,39%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 1,27</t>
+          <t>-0,75; 1,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-24,14; 69,53</t>
+          <t>-27,98; 85,72</t>
         </is>
       </c>
     </row>
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>92,28%</t>
+          <t>92,49%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 2,6</t>
+          <t>-0,14; 2,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-15,32; 420,9</t>
+          <t>-13,84; 421,55</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>37,37%</t>
+          <t>39,02%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 1,69</t>
+          <t>-0,11; 1,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 85,56</t>
+          <t>-4,07; 96,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A04-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A04-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 0,74</t>
+          <t>-2,17; 0,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 0,68</t>
+          <t>-2,28; 0,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 2,45</t>
+          <t>-0,2; 2,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 4,03</t>
+          <t>-0,91; 4,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-50,81; 32,41</t>
+          <t>-50,33; 29,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-54,44; 29,69</t>
+          <t>-52,64; 31,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 364,57</t>
+          <t>-17,39; 290,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,39; 136,69</t>
+          <t>-20,9; 150,04</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,06; 1,89</t>
+          <t>-0,03; 1,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 1,87</t>
+          <t>-0,77; 1,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 0,87</t>
+          <t>-1,16; 0,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 1,42</t>
+          <t>-0,59; 1,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 189,32</t>
+          <t>-5,99; 204,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,88; 85,87</t>
+          <t>-21,41; 78,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-38,52; 47,92</t>
+          <t>-42,2; 39,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-27,98; 85,72</t>
+          <t>-23,86; 95,43</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 1,7</t>
+          <t>-0,8; 1,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 1,37</t>
+          <t>-2,41; 1,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 2,33</t>
+          <t>-1,94; 2,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 2,55</t>
+          <t>-0,13; 2,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-66,21; 586,07</t>
+          <t>-71,39; 515,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-81,98; 157,67</t>
+          <t>-79,27; 217,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-52,2; 161,73</t>
+          <t>-57,61; 147,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,84; 421,55</t>
+          <t>-14,53; 350,42</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 1,15</t>
+          <t>-0,29; 1,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 0,84</t>
+          <t>-0,85; 0,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 0,95</t>
+          <t>-0,55; 0,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 1,67</t>
+          <t>-0,05; 1,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-14,59; 76,88</t>
+          <t>-13,36; 80,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,3; 35,5</t>
+          <t>-26,61; 32,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-20,86; 55,16</t>
+          <t>-22,68; 52,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 96,14</t>
+          <t>-1,94; 97,27</t>
         </is>
       </c>
     </row>
